--- a/Relazione/Tabelle/TabellaVolumi.xlsx
+++ b/Relazione/Tabelle/TabellaVolumi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7432595-334D-4A21-8C0F-9F2E40309EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5A8D7-7CB0-4FE8-AA40-33C60B95F6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{6FADB2D5-140B-46BE-9A40-7CF2C5F8C85D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FADB2D5-140B-46BE-9A40-7CF2C5F8C85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,6 +315,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,7 +325,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261ECB6-8C75-4385-AB02-C0BA08C27FE1}">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -650,18 +650,18 @@
     <col min="2" max="2" width="23.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -672,7 +672,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -683,7 +683,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -693,8 +693,9 @@
       <c r="D6" s="13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -705,7 +706,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -717,7 +718,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -728,7 +729,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -739,7 +740,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -750,7 +751,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -761,7 +762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -772,7 +773,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -783,7 +784,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -794,7 +795,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
@@ -969,7 +970,7 @@
       <c r="D31" s="13">
         <v>1000000</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Relazione/Tabelle/TabellaVolumi.xlsx
+++ b/Relazione/Tabelle/TabellaVolumi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5A8D7-7CB0-4FE8-AA40-33C60B95F6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74A25E-0D95-4C83-846F-9F97A60DCCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FADB2D5-140B-46BE-9A40-7CF2C5F8C85D}"/>
+    <workbookView xWindow="16067" yWindow="1587" windowWidth="9600" windowHeight="6000" xr2:uid="{6FADB2D5-140B-46BE-9A40-7CF2C5F8C85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261ECB6-8C75-4385-AB02-C0BA08C27FE1}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/Relazione/Tabelle/TabellaVolumi.xlsx
+++ b/Relazione/Tabelle/TabellaVolumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74A25E-0D95-4C83-846F-9F97A60DCCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF60961D-DF86-47B8-A8DC-A54C670A19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16067" yWindow="1587" windowWidth="9600" windowHeight="6000" xr2:uid="{6FADB2D5-140B-46BE-9A40-7CF2C5F8C85D}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261ECB6-8C75-4385-AB02-C0BA08C27FE1}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -703,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="14">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.5">
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="15">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="1"/>
     </row>

--- a/Relazione/Tabelle/TabellaVolumi.xlsx
+++ b/Relazione/Tabelle/TabellaVolumi.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF60961D-DF86-47B8-A8DC-A54C670A19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03B5F4B-FE78-4789-AF93-1A83201E08FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16067" yWindow="1587" windowWidth="9600" windowHeight="6000" xr2:uid="{6FADB2D5-140B-46BE-9A40-7CF2C5F8C85D}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{6FADB2D5-140B-46BE-9A40-7CF2C5F8C85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$2:$H$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Concetto</t>
   </si>
@@ -190,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -284,11 +287,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,27 +337,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,37 +696,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2261ECB6-8C75-4385-AB02-C0BA08C27FE1}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="23.234375" customWidth="1"/>
+    <col min="2" max="2" width="18.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.64453125" customWidth="1"/>
+    <col min="6" max="6" width="22.8203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.41015625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15">
         <v>650</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="24">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.5">
@@ -679,31 +763,58 @@
       <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="16">
         <v>350</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="17">
         <v>10000</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="16">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="18">
         <v>2000</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="20">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.5">
@@ -713,20 +824,38 @@
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="19">
         <v>2000</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="17">
         <v>50000</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.5">
@@ -736,19 +865,37 @@
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="19">
         <v>50000</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="19">
+        <v>10000</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <v>50000</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="17">
+        <v>250000</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.5">
@@ -758,19 +905,37 @@
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="16">
         <v>20</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <v>100000</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="20">
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.5">
@@ -780,19 +945,37 @@
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="19">
         <v>100000</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="16">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="17">
         <v>100000</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.5">
@@ -802,178 +985,157 @@
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B17" s="8" t="s">
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="13">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="17">
         <v>1000000</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="15">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="G31" s="16"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0.31496062992125984"/>
+  <pageSetup paperSize="11" scale="135" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>